--- a/ExcelFiles/Report.xlsx
+++ b/ExcelFiles/Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pytest_clone\Pytest_clone\Pytest_OrangeHRM\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpytest_clone\Pytest_OrangeHRM\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB740D7-2B09-4804-B046-6580BE5CED4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445534F-22CC-4E8E-8B57-7C7C2A9C3BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
